--- a/Employee_Reports35/Harikaran Seenithamby Q0591.xlsx
+++ b/Employee_Reports35/Harikaran Seenithamby Q0591.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1053,20 +1053,20 @@
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>06-Aug-2025</t>
+          <t>24-Feb-2025</t>
         </is>
       </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>06-Aug-2026</t>
+          <t>24-Feb-2026</t>
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>276</v>
+        <v>112</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1148,11 +1148,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1185,11 +1185,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">

--- a/Employee_Reports35/Harikaran Seenithamby Q0591.xlsx
+++ b/Employee_Reports35/Harikaran Seenithamby Q0591.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1148,11 +1148,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1185,11 +1185,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
